--- a/NformTester/NformTester/Keywordscripts/600.10.20.10_SamplingIntervalConfiguration.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.10_SamplingIntervalConfiguration.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7542" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7544" uniqueCount="865">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3819,19 +3819,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>Pre-condition</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3999,7 +3995,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4010,8 +4006,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4060,10 +4059,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4793,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4803,8 +4807,8 @@
     <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="44.875" customWidth="1"/>
-    <col min="9" max="9" width="33.125" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
     <col min="10" max="10" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5113,7 +5117,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -5400,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -5468,6 +5472,12 @@
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>864</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5793,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -6110,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -6422,7 +6432,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -6734,7 +6744,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -7046,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -7358,7 +7368,7 @@
         <v>2</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -7888,7 +7898,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
